--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1116176.340690715</v>
+        <v>-1118657.260516174</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>37.5335680193391</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>362.3144510950757</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.90520641978248</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
@@ -1585,13 +1585,13 @@
         <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>64.38090063223885</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649684</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>298.6010240982716</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.72657214036593</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>99.46801013766178</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>104.9558119137457</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>212.1824655163019</v>
+        <v>196.1505424627068</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085009</v>
+        <v>134.9383736358126</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5302192482728</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,7 +2087,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>9.36293595613553</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>97.90474570419515</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249327</v>
+        <v>137.1198840074559</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2734363206864</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245677</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G25" t="n">
-        <v>154.5302192482729</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432826</v>
+        <v>77.4365636592908</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231188</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958315</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797649</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433856</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957281</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124542</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145467</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020903</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007098</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482638</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092336</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621592</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3481,16 +3481,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>205.412428918173</v>
+        <v>197.992161178384</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007098</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383243</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>119.3005938533746</v>
       </c>
       <c r="H40" t="n">
-        <v>99.3621003269333</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>89.27723295060962</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>172.8237348705157</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
@@ -3961,7 +3961,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>89.94326605921967</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
-        <v>42.20693826439452</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1861.662031477902</v>
+        <v>1774.320592647428</v>
       </c>
       <c r="C11" t="n">
-        <v>1519.891581797214</v>
+        <v>1432.55014296674</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828185</v>
+        <v>1101.476511619713</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>1101.476511619713</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>717.6826740898292</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>351.7084810645003</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299107</v>
+        <v>81.31694793299118</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2842.94932116927</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479258</v>
+        <v>2842.94932116927</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.662031477902</v>
+        <v>2496.675630167914</v>
       </c>
       <c r="Y11" t="n">
-        <v>1861.662031477902</v>
+        <v>2133.728365451826</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.7690351314517</v>
+        <v>781.5713293855551</v>
       </c>
       <c r="C13" t="n">
-        <v>431.0249194632688</v>
+        <v>639.8272137173719</v>
       </c>
       <c r="D13" t="n">
-        <v>308.1003473106567</v>
+        <v>516.9026415647598</v>
       </c>
       <c r="E13" t="n">
-        <v>308.1003473106567</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="F13" t="n">
-        <v>308.1003473106567</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5203,7 +5203,7 @@
         <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402573</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
         <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430789</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535518</v>
+        <v>1194.659451599715</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152581</v>
+        <v>1129.628238839878</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314517</v>
+        <v>936.0277269560712</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1771.029130326017</v>
+        <v>1425.150667478181</v>
       </c>
       <c r="C14" t="n">
-        <v>1429.258680645327</v>
+        <v>1083.380217797494</v>
       </c>
       <c r="D14" t="n">
-        <v>1098.1850492983</v>
+        <v>1083.380217797494</v>
       </c>
       <c r="E14" t="n">
-        <v>739.5888639597798</v>
+        <v>724.7840324589729</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597798</v>
+        <v>724.7840324589729</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645002</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573495</v>
+        <v>3099.267412142731</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489648</v>
+        <v>2795.396592058884</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479258</v>
+        <v>2493.779396000024</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477902</v>
+        <v>2147.505704998667</v>
       </c>
       <c r="Y14" t="n">
-        <v>1771.029130326017</v>
+        <v>1784.558440282579</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>881.0209208138622</v>
+        <v>901.2692096237411</v>
       </c>
       <c r="C16" t="n">
-        <v>739.2768051456788</v>
+        <v>759.5250939555578</v>
       </c>
       <c r="D16" t="n">
-        <v>616.3522329930668</v>
+        <v>636.6005218029459</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802771</v>
+        <v>515.8794954802764</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420904</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,10 +5437,10 @@
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="U16" t="n">
-        <v>1718.795353991585</v>
+        <v>1651.459102547703</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.302933045422</v>
+        <v>1423.96668160154</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.077830268185</v>
+        <v>1161.741578824303</v>
       </c>
       <c r="X16" t="n">
-        <v>1229.077830268185</v>
+        <v>1055.725607194257</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.477318384378</v>
+        <v>1055.725607194257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1560.999521934037</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
         <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>966.228971144636</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628261</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5516,7 +5516,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5525,7 +5525,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,7 +5540,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
         <v>3158.620805936082</v>
@@ -5549,16 +5549,16 @@
         <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2765.406306673976</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="W17" t="n">
-        <v>2487.279351611659</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X17" t="n">
-        <v>2188.455293558377</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y17" t="n">
-        <v>1872.957661790362</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034452</v>
+        <v>537.8572904034445</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989065</v>
+        <v>462.3823511989057</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243104</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341972</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5698,7 +5698,7 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
@@ -5707,16 +5707,16 @@
         <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1855.320338666653</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535085</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446375</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628269</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936081</v>
+        <v>3316.148310542366</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.620805936081</v>
+        <v>3316.148310542366</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406591</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344274</v>
+        <v>2781.600168344276</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290991</v>
+        <v>2482.776110290993</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522976</v>
+        <v>2167.278478522978</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872281</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671182</v>
+        <v>537.8572904034445</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952114</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356242</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454039</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096708</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5963,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349345</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953124</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>388.4813261528511</v>
+        <v>429.6625348018608</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426974</v>
+        <v>763.4819084917071</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091106</v>
+        <v>1318.467498170161</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.86681776303</v>
+        <v>1851.999402842085</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821813</v>
+        <v>2398.778219900867</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.618105701149</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058327</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567315</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124118</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
         <v>2489.64174868129</v>
@@ -6054,19 +6054,19 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
         <v>405.3192232934467</v>
@@ -6078,7 +6078,7 @@
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.017411513854</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937441</v>
+        <v>481.6929346574177</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892055</v>
+        <v>406.2179954528789</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146094</v>
+        <v>332.9466020782828</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7283489244961</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.06173179634008</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6169,28 +6169,28 @@
         <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1855.94143530779</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342414</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720297</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362967</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6209,49 +6209,49 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398485</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910139</v>
+        <v>727.1188267890168</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.094314970129</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075026</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277654</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641921</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697992</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257034</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498215</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519654</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871311</v>
+        <v>3672.421873296411</v>
       </c>
       <c r="Q29" t="n">
-        <v>3977.401766380299</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6561,7 +6561,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,13 +6640,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="32">
@@ -6680,70 +6680,70 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1807.48405138456</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6774,31 +6774,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307339</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
         <v>3313.986587710109</v>
@@ -6968,10 +6968,10 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817093</v>
+        <v>598.25650757259</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630294</v>
+        <v>527.9917592185266</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245369</v>
+        <v>476.5465543800344</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>427.3048953714847</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919201</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304675</v>
+        <v>1123.418534185964</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673502</v>
+        <v>932.6727987228467</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431761</v>
+        <v>803.3546823986728</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734894</v>
+        <v>681.2335378289862</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.0765132702852</v>
+        <v>453.7336441225986</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8117649162216</v>
+        <v>383.4688957685351</v>
       </c>
       <c r="D40" t="n">
-        <v>529.3665600777292</v>
+        <v>332.0236909300428</v>
       </c>
       <c r="E40" t="n">
-        <v>480.1249010691794</v>
+        <v>282.7820319214931</v>
       </c>
       <c r="F40" t="n">
-        <v>431.9063881451124</v>
+        <v>234.5635189974262</v>
       </c>
       <c r="G40" t="n">
-        <v>264.2035515198313</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7360,22 +7360,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816216</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515703</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1176.23853988366</v>
+        <v>978.8956707359725</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205423</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1746880963683</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0535435266816</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,37 +7421,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7509,7 +7509,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.602264964779</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C43" t="n">
-        <v>529.3375166107155</v>
+        <v>769.3136567325377</v>
       </c>
       <c r="D43" t="n">
-        <v>477.8923117722233</v>
+        <v>619.1970173202019</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6506527636736</v>
+        <v>471.2839237378088</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>324.3939762398984</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>156.6911396146174</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1471.20877751071</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210196</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578153</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>934.0185561150358</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>804.7004397908619</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211752</v>
+        <v>922.5554353429974</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7682,13 +7682,13 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7770,7 +7770,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650711</v>
+        <v>839.5784050866007</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110077</v>
+        <v>670.6422221586938</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725155</v>
+        <v>520.5255827463581</v>
       </c>
       <c r="E46" t="n">
-        <v>372.6124891639659</v>
+        <v>372.6124891639649</v>
       </c>
       <c r="F46" t="n">
-        <v>225.7225416660555</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G46" t="n">
-        <v>156.691139614618</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>109.1453874063193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891713</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>748.662276191154</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214673</v>
+        <v>922.555435342997</v>
       </c>
     </row>
   </sheetData>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430629</v>
+        <v>157.2353108430628</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729005</v>
+        <v>184.4039433729004</v>
       </c>
       <c r="L8" t="n">
-        <v>191.49489093896</v>
+        <v>191.4948909389599</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333063</v>
+        <v>181.0856325333062</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830237</v>
+        <v>179.3553748830235</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383986</v>
+        <v>182.8301554383985</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586581</v>
+        <v>190.890803558658</v>
       </c>
       <c r="Q8" t="n">
         <v>192.0103836266121</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372531</v>
+        <v>113.603122337253</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672271</v>
+        <v>105.962971867227</v>
       </c>
       <c r="M9" t="n">
-        <v>104.101398125359</v>
+        <v>104.1013981253589</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677621</v>
+        <v>92.30246558677609</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359733</v>
+        <v>106.8829608359732</v>
       </c>
       <c r="P9" t="n">
         <v>105.3113487798321</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>116.1755252564656</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085225</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
         <v>120.6694600530923</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4994347185286</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>105.0013903333785</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>124.5185911550059</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>78.40458911672795</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>78.40458911672928</v>
       </c>
       <c r="R29" t="n">
-        <v>21.1383958559142</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>221.2853655744099</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.220684154413</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>290.2293270142175</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>21.68712797125133</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>87.20045525211935</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>134.4086081696719</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>23.71979803201486</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>269.5912199285613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.045805921781</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>93.83369688816501</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>41.67450974811393</v>
+        <v>57.70643280170908</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>120.6597509777657</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>155.9522295602207</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>245782.9016151115</v>
       </c>
       <c r="D2" t="n">
-        <v>245789.6009417839</v>
+        <v>245789.600941784</v>
       </c>
       <c r="E2" t="n">
         <v>218862.0002714923</v>
       </c>
       <c r="F2" t="n">
-        <v>218862.0002714922</v>
+        <v>218862.0002714923</v>
       </c>
       <c r="G2" t="n">
         <v>238359.246373961</v>
@@ -26335,16 +26335,16 @@
         <v>246312.530959285</v>
       </c>
       <c r="J2" t="n">
-        <v>246312.5309592846</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="K2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="L2" t="n">
         <v>246312.5309592847</v>
       </c>
-      <c r="L2" t="n">
-        <v>246312.5309592848</v>
-      </c>
       <c r="M2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592853</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592852</v>
@@ -26353,7 +26353,7 @@
         <v>246312.5309592852</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592852</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552335</v>
+        <v>59764.55367552352</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.145141455743994e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487384</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983357</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743994e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487414</v>
+        <v>37580.10929487396</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927244</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>439568.9169913873</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367432</v>
+        <v>41244.04987367435</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367433</v>
+        <v>41244.04987367442</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511667</v>
+        <v>78272.21023511662</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511665</v>
+        <v>78272.21023511661</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057466</v>
+        <v>93189.85962057464</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226084</v>
+        <v>93063.7509922608</v>
       </c>
       <c r="K4" t="n">
+        <v>93063.75099226083</v>
+      </c>
+      <c r="L4" t="n">
         <v>93063.75099226079</v>
       </c>
-      <c r="L4" t="n">
-        <v>93063.75099226073</v>
-      </c>
       <c r="M4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820633</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186637</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,34 +26482,34 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250995.4294869982</v>
+        <v>-250999.8430648664</v>
       </c>
       <c r="C6" t="n">
-        <v>-250995.4294869983</v>
+        <v>-250999.8430648664</v>
       </c>
       <c r="D6" t="n">
-        <v>-288692.7751569931</v>
+        <v>-288697.132907139</v>
       </c>
       <c r="E6" t="n">
-        <v>-988190.51213064</v>
+        <v>-988419.2665530381</v>
       </c>
       <c r="F6" t="n">
-        <v>101048.4600329915</v>
+        <v>100819.7056105931</v>
       </c>
       <c r="G6" t="n">
-        <v>41988.28371875544</v>
+        <v>41922.0063472113</v>
       </c>
       <c r="H6" t="n">
-        <v>79568.39301362932</v>
+        <v>79502.11564208509</v>
       </c>
       <c r="I6" t="n">
-        <v>44564.67520703464</v>
+        <v>44564.6752070345</v>
       </c>
       <c r="J6" t="n">
-        <v>38461.40527042067</v>
+        <v>38461.40527042099</v>
       </c>
       <c r="K6" t="n">
-        <v>63870.83829221787</v>
+        <v>63870.83829221781</v>
       </c>
       <c r="L6" t="n">
-        <v>26290.72899734387</v>
+        <v>26290.72899734386</v>
       </c>
       <c r="M6" t="n">
-        <v>-131777.9531878952</v>
+        <v>-131777.9531878954</v>
       </c>
       <c r="N6" t="n">
-        <v>70390.14680482907</v>
+        <v>70390.14680482901</v>
       </c>
       <c r="O6" t="n">
-        <v>70390.14680482888</v>
+        <v>70390.14680482895</v>
       </c>
       <c r="P6" t="n">
-        <v>70390.14680482906</v>
+        <v>70390.14680482898</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790707</v>
+        <v>69.78465283790727</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26805,28 +26805,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810295</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951226</v>
+        <v>50.70958360951253</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790707</v>
+        <v>69.78465283790727</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755391</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873682</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672102</v>
+        <v>84.228618466721</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987509</v>
+        <v>90.83829126987506</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519076</v>
+        <v>84.46220888519073</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990195</v>
+        <v>7.649035050990152</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317042</v>
+        <v>75.62456067317039</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075653</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>11.4955890107554</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075645</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075554</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G25" t="n">
-        <v>11.49558901075537</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075655</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859034</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859122</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859375</v>
       </c>
       <c r="N34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,10 +30189,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30201,16 +30201,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>46.72521440565498</v>
+        <v>54.14548214544402</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>46.72521440565366</v>
       </c>
       <c r="H40" t="n">
-        <v>45.39291458738748</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30432,22 +30432,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>55.47778196371117</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>46.72521440565347</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>55.47778196371158</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>54.14548214544359</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413347</v>
+        <v>0.2805413179413356</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366695</v>
+        <v>2.873093772366703</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993332</v>
+        <v>10.81556915993335</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362338</v>
+        <v>23.81059368362345</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208009</v>
+        <v>35.68590767208019</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102723</v>
+        <v>44.27152403102735</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396643</v>
+        <v>49.26060069396657</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356725</v>
+        <v>50.05768871356739</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328811</v>
+        <v>47.26805598328824</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661139</v>
+        <v>40.34219219661151</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783733</v>
+        <v>30.29530624783742</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313239</v>
+        <v>17.62255356313243</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588172</v>
+        <v>6.392835282588191</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288193</v>
+        <v>1.228069619288197</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530678</v>
+        <v>0.02244330543530684</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796492</v>
+        <v>0.1501028381796496</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840296</v>
+        <v>1.4496774108403</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694063</v>
+        <v>5.168014384694077</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790694</v>
+        <v>14.18142647906944</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371059</v>
+        <v>24.23831663710596</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264708</v>
+        <v>32.59140791264717</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665935</v>
+        <v>38.03263579665946</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655709</v>
+        <v>39.0392464965572</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847118</v>
+        <v>35.71328360847128</v>
       </c>
       <c r="P9" t="n">
-        <v>28.6630586344981</v>
+        <v>28.66305863449818</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447592</v>
+        <v>19.16049562447598</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768047</v>
+        <v>9.319542882768074</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608833</v>
+        <v>2.788094384608841</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890243</v>
+        <v>0.6050197731890261</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345344</v>
+        <v>0.009875186722345374</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486849</v>
+        <v>0.1258411772486852</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811035</v>
+        <v>1.118842466811039</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078634</v>
+        <v>3.784387403078644</v>
       </c>
       <c r="J10" t="n">
-        <v>8.89697123148202</v>
+        <v>8.896971231482045</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489266</v>
+        <v>14.6204567748927</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477266</v>
+        <v>18.70915102477272</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908248</v>
+        <v>19.72617653908254</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115558</v>
+        <v>19.25713215115564</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875048</v>
+        <v>17.78707839875053</v>
       </c>
       <c r="P10" t="n">
-        <v>15.2199183828773</v>
+        <v>15.21991838287734</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852397</v>
+        <v>10.537482578524</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381775</v>
+        <v>5.658276933381791</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233899</v>
+        <v>2.193068516233905</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625625</v>
+        <v>0.5376850300625641</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564638</v>
+        <v>0.006864064213564657</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -32804,7 +32804,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.2864356872411</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>560.5915047257105</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36595,7 +36595,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>461.7098777104063</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>586.457590004947</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165888</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887884</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36850,10 +36850,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>329.1988939204487</v>
       </c>
       <c r="R29" t="n">
-        <v>80.75159439813892</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>760.2064814046364</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737849</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120775</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
